--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl1-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl1-Cxcr1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.79062366666667</v>
+        <v>16.158065</v>
       </c>
       <c r="H2">
-        <v>59.37187100000001</v>
+        <v>48.474195</v>
       </c>
       <c r="I2">
-        <v>0.04690933339254189</v>
+        <v>0.05027302757218571</v>
       </c>
       <c r="J2">
-        <v>0.04982137012915518</v>
+        <v>0.0511740544428244</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02139966666666667</v>
+        <v>0.02264433333333333</v>
       </c>
       <c r="N2">
-        <v>0.06419900000000001</v>
+        <v>0.06793299999999999</v>
       </c>
       <c r="O2">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489194</v>
       </c>
       <c r="P2">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489193</v>
       </c>
       <c r="Q2">
-        <v>0.4235127495921112</v>
+        <v>0.3658886098816667</v>
       </c>
       <c r="R2">
-        <v>3.811614746329001</v>
+        <v>3.292997488935</v>
       </c>
       <c r="S2">
-        <v>0.008874178361168546</v>
+        <v>0.004250480820502302</v>
       </c>
       <c r="T2">
-        <v>0.009425069442453665</v>
+        <v>0.004326660784537844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.79062366666667</v>
+        <v>16.158065</v>
       </c>
       <c r="H3">
-        <v>59.37187100000001</v>
+        <v>48.474195</v>
       </c>
       <c r="I3">
-        <v>0.04690933339254189</v>
+        <v>0.05027302757218571</v>
       </c>
       <c r="J3">
-        <v>0.04982137012915518</v>
+        <v>0.0511740544428244</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.09172000000000001</v>
+        <v>0.245184</v>
       </c>
       <c r="N3">
-        <v>0.27516</v>
+        <v>0.735552</v>
       </c>
       <c r="O3">
-        <v>0.8108227570213256</v>
+        <v>0.915452061955108</v>
       </c>
       <c r="P3">
-        <v>0.8108227570213254</v>
+        <v>0.9154520619551081</v>
       </c>
       <c r="Q3">
-        <v>1.815196002706667</v>
+        <v>3.96169900896</v>
       </c>
       <c r="R3">
-        <v>16.33676402436</v>
+        <v>35.65529108064</v>
       </c>
       <c r="S3">
-        <v>0.03803515503137335</v>
+        <v>0.04602254675168341</v>
       </c>
       <c r="T3">
-        <v>0.04039630068670152</v>
+        <v>0.04684739365828656</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +670,40 @@
         <v>781.849991</v>
       </c>
       <c r="I4">
-        <v>0.6177346489682779</v>
+        <v>0.8108637215090658</v>
       </c>
       <c r="J4">
-        <v>0.6560823691590862</v>
+        <v>0.8253965642040216</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02139966666666667</v>
+        <v>0.02264433333333333</v>
       </c>
       <c r="N4">
-        <v>0.06419900000000001</v>
+        <v>0.06793299999999999</v>
       </c>
       <c r="O4">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489194</v>
       </c>
       <c r="P4">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489193</v>
       </c>
       <c r="Q4">
-        <v>5.577109730245445</v>
+        <v>5.901490604289222</v>
       </c>
       <c r="R4">
-        <v>50.19398757220901</v>
+        <v>53.113415438603</v>
       </c>
       <c r="S4">
-        <v>0.1168613377842181</v>
+        <v>0.06855685568899901</v>
       </c>
       <c r="T4">
-        <v>0.1241158537644329</v>
+        <v>0.06978557757278828</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>781.849991</v>
       </c>
       <c r="I5">
-        <v>0.6177346489682779</v>
+        <v>0.8108637215090658</v>
       </c>
       <c r="J5">
-        <v>0.6560823691590862</v>
+        <v>0.8253965642040216</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.09172000000000001</v>
+        <v>0.245184</v>
       </c>
       <c r="N5">
-        <v>0.27516</v>
+        <v>0.735552</v>
       </c>
       <c r="O5">
-        <v>0.8108227570213256</v>
+        <v>0.915452061955108</v>
       </c>
       <c r="P5">
-        <v>0.8108227570213254</v>
+        <v>0.9154520619551081</v>
       </c>
       <c r="Q5">
-        <v>23.90376039150667</v>
+        <v>63.899036064448</v>
       </c>
       <c r="R5">
-        <v>215.13384352356</v>
+        <v>575.0913245800321</v>
       </c>
       <c r="S5">
-        <v>0.5008733111840599</v>
+        <v>0.7423068658200668</v>
       </c>
       <c r="T5">
-        <v>0.5319665153946533</v>
+        <v>0.7556109866312334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.92354333333333</v>
+        <v>10.026051</v>
       </c>
       <c r="H6">
-        <v>59.77063</v>
+        <v>30.078153</v>
       </c>
       <c r="I6">
-        <v>0.04722439031359254</v>
+        <v>0.03119432545686257</v>
       </c>
       <c r="J6">
-        <v>0.05015598514796319</v>
+        <v>0.03175341105018045</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02139966666666667</v>
+        <v>0.02264433333333333</v>
       </c>
       <c r="N6">
-        <v>0.06419900000000001</v>
+        <v>0.06793299999999999</v>
       </c>
       <c r="O6">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489194</v>
       </c>
       <c r="P6">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489193</v>
       </c>
       <c r="Q6">
-        <v>0.4263571861522222</v>
+        <v>0.227033240861</v>
       </c>
       <c r="R6">
-        <v>3.83721467537</v>
+        <v>2.043299167749</v>
       </c>
       <c r="S6">
-        <v>0.008933779960874258</v>
+        <v>0.002637415896079012</v>
       </c>
       <c r="T6">
-        <v>0.009488370989171022</v>
+        <v>0.002684685430184644</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.92354333333333</v>
+        <v>10.026051</v>
       </c>
       <c r="H7">
-        <v>59.77063</v>
+        <v>30.078153</v>
       </c>
       <c r="I7">
-        <v>0.04722439031359254</v>
+        <v>0.03119432545686257</v>
       </c>
       <c r="J7">
-        <v>0.05015598514796319</v>
+        <v>0.03175341105018045</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.09172000000000001</v>
+        <v>0.245184</v>
       </c>
       <c r="N7">
-        <v>0.27516</v>
+        <v>0.735552</v>
       </c>
       <c r="O7">
-        <v>0.8108227570213256</v>
+        <v>0.915452061955108</v>
       </c>
       <c r="P7">
-        <v>0.8108227570213254</v>
+        <v>0.9154520619551081</v>
       </c>
       <c r="Q7">
-        <v>1.827387394533333</v>
+        <v>2.458227288384</v>
       </c>
       <c r="R7">
-        <v>16.4464865508</v>
+        <v>22.124045595456</v>
       </c>
       <c r="S7">
-        <v>0.03829061035271828</v>
+        <v>0.02855690956078356</v>
       </c>
       <c r="T7">
-        <v>0.04066761415879216</v>
+        <v>0.02906872561999581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>73.97801200000001</v>
+        <v>16.977099</v>
       </c>
       <c r="H8">
-        <v>147.956024</v>
+        <v>33.954198</v>
       </c>
       <c r="I8">
-        <v>0.1753486543463721</v>
+        <v>0.05282131035632833</v>
       </c>
       <c r="J8">
-        <v>0.1241559632598098</v>
+        <v>0.03584533950516226</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.02139966666666667</v>
+        <v>0.02264433333333333</v>
       </c>
       <c r="N8">
-        <v>0.06419900000000001</v>
+        <v>0.06793299999999999</v>
       </c>
       <c r="O8">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489194</v>
       </c>
       <c r="P8">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489193</v>
       </c>
       <c r="Q8">
-        <v>1.583104797462667</v>
+        <v>0.384435088789</v>
       </c>
       <c r="R8">
-        <v>9.498628784776002</v>
+        <v>2.306610532734</v>
       </c>
       <c r="S8">
-        <v>0.03317197498926724</v>
+        <v>0.004465932875456857</v>
       </c>
       <c r="T8">
-        <v>0.02348748282885242</v>
+        <v>0.003030649543680576</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>73.97801200000001</v>
+        <v>16.977099</v>
       </c>
       <c r="H9">
-        <v>147.956024</v>
+        <v>33.954198</v>
       </c>
       <c r="I9">
-        <v>0.1753486543463721</v>
+        <v>0.05282131035632833</v>
       </c>
       <c r="J9">
-        <v>0.1241559632598098</v>
+        <v>0.03584533950516226</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09172000000000001</v>
+        <v>0.245184</v>
       </c>
       <c r="N9">
-        <v>0.27516</v>
+        <v>0.735552</v>
       </c>
       <c r="O9">
-        <v>0.8108227570213256</v>
+        <v>0.915452061955108</v>
       </c>
       <c r="P9">
-        <v>0.8108227570213254</v>
+        <v>0.9154520619551081</v>
       </c>
       <c r="Q9">
-        <v>6.785263260640002</v>
+        <v>4.162513041215999</v>
       </c>
       <c r="R9">
-        <v>40.71157956384</v>
+        <v>24.975078247296</v>
       </c>
       <c r="S9">
-        <v>0.1421766793571049</v>
+        <v>0.04835537748087147</v>
       </c>
       <c r="T9">
-        <v>0.1006684804309574</v>
+        <v>0.03281468996148169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>47.58211666666667</v>
+        <v>17.628366</v>
       </c>
       <c r="H10">
-        <v>142.74635</v>
+        <v>52.885098</v>
       </c>
       <c r="I10">
-        <v>0.1127829729792156</v>
+        <v>0.05484761510555757</v>
       </c>
       <c r="J10">
-        <v>0.1197843123039854</v>
+        <v>0.05583063079781116</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.02139966666666667</v>
+        <v>0.02264433333333333</v>
       </c>
       <c r="N10">
-        <v>0.06419900000000001</v>
+        <v>0.06793299999999999</v>
       </c>
       <c r="O10">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489194</v>
       </c>
       <c r="P10">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489193</v>
       </c>
       <c r="Q10">
-        <v>1.018241435961111</v>
+        <v>0.399182595826</v>
       </c>
       <c r="R10">
-        <v>9.164172923650002</v>
+        <v>3.592643362434</v>
       </c>
       <c r="S10">
-        <v>0.02133597188314635</v>
+        <v>0.004637252763854761</v>
       </c>
       <c r="T10">
-        <v>0.02266046595376447</v>
+        <v>0.004720364713700573</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>47.58211666666667</v>
+        <v>17.628366</v>
       </c>
       <c r="H11">
-        <v>142.74635</v>
+        <v>52.885098</v>
       </c>
       <c r="I11">
-        <v>0.1127829729792156</v>
+        <v>0.05484761510555757</v>
       </c>
       <c r="J11">
-        <v>0.1197843123039854</v>
+        <v>0.05583063079781116</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.09172000000000001</v>
+        <v>0.245184</v>
       </c>
       <c r="N11">
-        <v>0.27516</v>
+        <v>0.735552</v>
       </c>
       <c r="O11">
-        <v>0.8108227570213256</v>
+        <v>0.915452061955108</v>
       </c>
       <c r="P11">
-        <v>0.8108227570213254</v>
+        <v>0.9154520619551081</v>
       </c>
       <c r="Q11">
-        <v>4.364231740666668</v>
+        <v>4.322193289344</v>
       </c>
       <c r="R11">
-        <v>39.278085666</v>
+        <v>38.899739604096</v>
       </c>
       <c r="S11">
-        <v>0.09144700109606924</v>
+        <v>0.05021036234170281</v>
       </c>
       <c r="T11">
-        <v>0.09712384635022088</v>
+        <v>0.05111026608411059</v>
       </c>
     </row>
   </sheetData>
